--- a/hr.xlsx
+++ b/hr.xlsx
@@ -1847,7 +1847,7 @@
     <t>86―エイティシックス―</t>
   </si>
   <si>
-    <t>CYBERPUNK: EDGERUNNERS</t>
+    <t>CYBERPUNK EDGERUNNERS</t>
   </si>
   <si>
     <t>とある科学の超電磁砲</t>
@@ -2009,7 +2009,7 @@
     <t>86 Eighty-Six</t>
   </si>
   <si>
-    <t>Cyberpunk: Edgerunners</t>
+    <t>Cyberpunk Edgerunners</t>
   </si>
   <si>
     <t>A Certain Scientific Railgun</t>

--- a/hr.xlsx
+++ b/hr.xlsx
@@ -1892,7 +1892,7 @@
     <t>My Happy Marriage</t>
   </si>
   <si>
-    <t>Zom 100: Bucket List of the Dead</t>
+    <t>Zom 100 Bucket List of the Dead</t>
   </si>
   <si>
     <t>The Café Terrace and Its Godness</t>

--- a/hr.xlsx
+++ b/hr.xlsx
@@ -1697,6 +1697,168 @@
     <t>Shiro</t>
   </si>
   <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>5Toubun no Hanayome</t>
+  </si>
+  <si>
+    <t>The Rising of the Shield Hero</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>Oshi No Ko</t>
+  </si>
+  <si>
+    <t>Chainsaw Man</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>My Happy Marriage</t>
+  </si>
+  <si>
+    <t>Zom 100 Bucket List of the Dead</t>
+  </si>
+  <si>
+    <t>The Café Terrace and Its Godness</t>
+  </si>
+  <si>
+    <t>The Dangers in My Heart</t>
+  </si>
+  <si>
+    <t>A Galaxy Next Door</t>
+  </si>
+  <si>
+    <t>Over The Moon For You</t>
+  </si>
+  <si>
+    <t>Suzume</t>
+  </si>
+  <si>
+    <t>My Love Story with Yamada-kun at Lv999</t>
+  </si>
+  <si>
+    <t>Toradora!</t>
+  </si>
+  <si>
+    <t>Rascals Does Not Dream of Bunny Girl Senpai</t>
+  </si>
+  <si>
+    <t>My Dress-Up Darling</t>
+  </si>
+  <si>
+    <t>Rent a Girlfriend</t>
+  </si>
+  <si>
+    <t>How to Raise a Boring Girlfriend</t>
+  </si>
+  <si>
+    <t>I Got a Cheat Skill in Another World and Became Unrivaled in The Real World, Too</t>
+  </si>
+  <si>
+    <t>From Commonplace to World's Strongest</t>
+  </si>
+  <si>
+    <t>How Not to sommon a Demon Lord</t>
+  </si>
+  <si>
+    <t>Chivalry of a Failed Knight</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Noragami</t>
+  </si>
+  <si>
+    <t>Fairy Tail</t>
+  </si>
+  <si>
+    <t>A Silent Voice</t>
+  </si>
+  <si>
+    <t>Your Lie in April</t>
+  </si>
+  <si>
+    <t>The Flower We Saw That Day</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Classroom of The Elite</t>
+  </si>
+  <si>
+    <t>Weathering with You</t>
+  </si>
+  <si>
+    <t>Hell's Paradise</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Jobless Reincarnation</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Grand Blue Dreaming</t>
+  </si>
+  <si>
+    <t>Assasination Classroom</t>
+  </si>
+  <si>
+    <t>Love is War</t>
+  </si>
+  <si>
+    <t>The Devil is a Part-Timer!</t>
+  </si>
+  <si>
+    <t>Masumune-kun's Revenge</t>
+  </si>
+  <si>
+    <t>Komi Can't Communicate</t>
+  </si>
+  <si>
+    <t>Combatant's Will Be Dispatched!</t>
+  </si>
+  <si>
+    <t>Dr-stone</t>
+  </si>
+  <si>
+    <t>86 Eighty-Six</t>
+  </si>
+  <si>
+    <t>Cyberpunk Edgerunners</t>
+  </si>
+  <si>
+    <t>A Certain Scientific Railgun</t>
+  </si>
+  <si>
+    <t>Vivy-Fluorite Eye's Song</t>
+  </si>
+  <si>
+    <t>Takt Op. Destiny</t>
+  </si>
+  <si>
+    <t>Heavenly Delusion</t>
+  </si>
+  <si>
     <t>呪術廻戦</t>
   </si>
   <si>
@@ -1860,168 +2022,6 @@
   </si>
   <si>
     <t>天国大魔境</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>5Toubun no Hanayome</t>
-  </si>
-  <si>
-    <t>The Rising of the Shield Hero</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Your Name</t>
-  </si>
-  <si>
-    <t>Oshi No Ko</t>
-  </si>
-  <si>
-    <t>Chainsaw Man</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>My Happy Marriage</t>
-  </si>
-  <si>
-    <t>Zom 100 Bucket List of the Dead</t>
-  </si>
-  <si>
-    <t>The Café Terrace and Its Godness</t>
-  </si>
-  <si>
-    <t>The Dangers in My Heart</t>
-  </si>
-  <si>
-    <t>A Galaxy Next Door</t>
-  </si>
-  <si>
-    <t>Over The Moon For You</t>
-  </si>
-  <si>
-    <t>Suzume</t>
-  </si>
-  <si>
-    <t>My Love Story with Yamada-kun at Lv999</t>
-  </si>
-  <si>
-    <t>Toradora!</t>
-  </si>
-  <si>
-    <t>Rascals Does Not Dream of Bunny Girl Senpai</t>
-  </si>
-  <si>
-    <t>My Dress-Up Darling</t>
-  </si>
-  <si>
-    <t>Rent a Girlfriend</t>
-  </si>
-  <si>
-    <t>How to Raise a Boring Girlfriend</t>
-  </si>
-  <si>
-    <t>I Got a Cheat Skill in Another World and Became Unrivaled in The Real World, Too</t>
-  </si>
-  <si>
-    <t>From Commonplace to World's Strongest</t>
-  </si>
-  <si>
-    <t>How Not to sommon a Demon Lord</t>
-  </si>
-  <si>
-    <t>Chivalry of a Failed Knight</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Noragami</t>
-  </si>
-  <si>
-    <t>Fairy Tail</t>
-  </si>
-  <si>
-    <t>A Silent Voice</t>
-  </si>
-  <si>
-    <t>Your Lie in April</t>
-  </si>
-  <si>
-    <t>The Flower We Saw That Day</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Classroom of The Elite</t>
-  </si>
-  <si>
-    <t>Weathering with You</t>
-  </si>
-  <si>
-    <t>Hell's Paradise</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>Jobless Reincarnation</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Grand Blue Dreaming</t>
-  </si>
-  <si>
-    <t>Assasination Classroom</t>
-  </si>
-  <si>
-    <t>Love is War</t>
-  </si>
-  <si>
-    <t>The Devil is a Part-Timer!</t>
-  </si>
-  <si>
-    <t>Masumune-kun's Revenge</t>
-  </si>
-  <si>
-    <t>Komi Can't Communicate</t>
-  </si>
-  <si>
-    <t>Combatant's Will Be Dispatched!</t>
-  </si>
-  <si>
-    <t>Dr-stone</t>
-  </si>
-  <si>
-    <t>86 Eighty-Six</t>
-  </si>
-  <si>
-    <t>Cyberpunk Edgerunners</t>
-  </si>
-  <si>
-    <t>A Certain Scientific Railgun</t>
-  </si>
-  <si>
-    <t>Vivy-Fluorite Eye's Song</t>
-  </si>
-  <si>
-    <t>Takt Op. Destiny</t>
-  </si>
-  <si>
-    <t>Heavenly Delusion</t>
   </si>
 </sst>
 </file>
@@ -2422,7 +2422,7 @@
         <v>560</v>
       </c>
       <c r="D2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2436,7 +2436,7 @@
         <v>560</v>
       </c>
       <c r="D3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>560</v>
       </c>
       <c r="D4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>560</v>
       </c>
       <c r="D5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2478,7 +2478,7 @@
         <v>560</v>
       </c>
       <c r="D6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2492,7 +2492,7 @@
         <v>560</v>
       </c>
       <c r="D7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>561</v>
       </c>
       <c r="D8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2520,7 +2520,7 @@
         <v>561</v>
       </c>
       <c r="D9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2534,7 +2534,7 @@
         <v>561</v>
       </c>
       <c r="D10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2548,7 +2548,7 @@
         <v>561</v>
       </c>
       <c r="D11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2562,7 +2562,7 @@
         <v>562</v>
       </c>
       <c r="D12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2576,7 +2576,7 @@
         <v>562</v>
       </c>
       <c r="D13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>562</v>
       </c>
       <c r="D14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2604,7 +2604,7 @@
         <v>562</v>
       </c>
       <c r="D15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>562</v>
       </c>
       <c r="D16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2632,7 +2632,7 @@
         <v>563</v>
       </c>
       <c r="D17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2646,7 +2646,7 @@
         <v>563</v>
       </c>
       <c r="D18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2660,7 +2660,7 @@
         <v>563</v>
       </c>
       <c r="D19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2674,7 +2674,7 @@
         <v>563</v>
       </c>
       <c r="D20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2688,7 +2688,7 @@
         <v>564</v>
       </c>
       <c r="D21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2702,7 +2702,7 @@
         <v>564</v>
       </c>
       <c r="D22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2716,7 +2716,7 @@
         <v>564</v>
       </c>
       <c r="D23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2730,7 +2730,7 @@
         <v>565</v>
       </c>
       <c r="D24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2744,7 +2744,7 @@
         <v>565</v>
       </c>
       <c r="D25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2758,7 +2758,7 @@
         <v>566</v>
       </c>
       <c r="D26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2772,7 +2772,7 @@
         <v>566</v>
       </c>
       <c r="D27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2786,7 +2786,7 @@
         <v>566</v>
       </c>
       <c r="D28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2800,7 +2800,7 @@
         <v>566</v>
       </c>
       <c r="D29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2814,7 +2814,7 @@
         <v>566</v>
       </c>
       <c r="D30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>566</v>
       </c>
       <c r="D31" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2842,7 +2842,7 @@
         <v>566</v>
       </c>
       <c r="D32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2856,7 +2856,7 @@
         <v>567</v>
       </c>
       <c r="D33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2870,7 +2870,7 @@
         <v>567</v>
       </c>
       <c r="D34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2884,7 +2884,7 @@
         <v>567</v>
       </c>
       <c r="D35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>567</v>
       </c>
       <c r="D36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2912,7 +2912,7 @@
         <v>567</v>
       </c>
       <c r="D37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2926,7 +2926,7 @@
         <v>567</v>
       </c>
       <c r="D38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2940,7 +2940,7 @@
         <v>567</v>
       </c>
       <c r="D39" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2954,7 +2954,7 @@
         <v>567</v>
       </c>
       <c r="D40" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2968,7 +2968,7 @@
         <v>568</v>
       </c>
       <c r="D41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2982,7 +2982,7 @@
         <v>568</v>
       </c>
       <c r="D42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2996,7 +2996,7 @@
         <v>568</v>
       </c>
       <c r="D43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>568</v>
       </c>
       <c r="D44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3024,7 +3024,7 @@
         <v>568</v>
       </c>
       <c r="D45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3038,7 +3038,7 @@
         <v>569</v>
       </c>
       <c r="D46" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3052,7 +3052,7 @@
         <v>569</v>
       </c>
       <c r="D47" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3066,7 +3066,7 @@
         <v>569</v>
       </c>
       <c r="D48" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3080,7 +3080,7 @@
         <v>569</v>
       </c>
       <c r="D49" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3094,7 +3094,7 @@
         <v>569</v>
       </c>
       <c r="D50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3108,7 +3108,7 @@
         <v>570</v>
       </c>
       <c r="D51" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3122,7 +3122,7 @@
         <v>570</v>
       </c>
       <c r="D52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3136,7 +3136,7 @@
         <v>570</v>
       </c>
       <c r="D53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3150,7 +3150,7 @@
         <v>570</v>
       </c>
       <c r="D54" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3164,7 +3164,7 @@
         <v>570</v>
       </c>
       <c r="D55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3178,7 +3178,7 @@
         <v>571</v>
       </c>
       <c r="D56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3192,7 +3192,7 @@
         <v>571</v>
       </c>
       <c r="D57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3206,7 +3206,7 @@
         <v>571</v>
       </c>
       <c r="D58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3220,7 +3220,7 @@
         <v>571</v>
       </c>
       <c r="D59" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3234,7 +3234,7 @@
         <v>571</v>
       </c>
       <c r="D60" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3248,7 +3248,7 @@
         <v>571</v>
       </c>
       <c r="D61" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3262,7 +3262,7 @@
         <v>572</v>
       </c>
       <c r="D62" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>572</v>
       </c>
       <c r="D63" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>572</v>
       </c>
       <c r="D64" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>572</v>
       </c>
       <c r="D65" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3318,7 +3318,7 @@
         <v>573</v>
       </c>
       <c r="D66" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3332,7 +3332,7 @@
         <v>573</v>
       </c>
       <c r="D67" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3346,7 +3346,7 @@
         <v>573</v>
       </c>
       <c r="D68" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>573</v>
       </c>
       <c r="D69" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3374,7 +3374,7 @@
         <v>574</v>
       </c>
       <c r="D70" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>574</v>
       </c>
       <c r="D71" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>574</v>
       </c>
       <c r="D72" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3416,7 +3416,7 @@
         <v>575</v>
       </c>
       <c r="D73" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3430,7 +3430,7 @@
         <v>575</v>
       </c>
       <c r="D74" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>575</v>
       </c>
       <c r="D75" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>575</v>
       </c>
       <c r="D76" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>576</v>
       </c>
       <c r="D77" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3486,7 +3486,7 @@
         <v>576</v>
       </c>
       <c r="D78" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3500,7 +3500,7 @@
         <v>576</v>
       </c>
       <c r="D79" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3514,7 +3514,7 @@
         <v>576</v>
       </c>
       <c r="D80" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>576</v>
       </c>
       <c r="D81" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3542,7 +3542,7 @@
         <v>577</v>
       </c>
       <c r="D82" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3556,7 +3556,7 @@
         <v>577</v>
       </c>
       <c r="D83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3570,7 +3570,7 @@
         <v>577</v>
       </c>
       <c r="D84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>577</v>
       </c>
       <c r="D85" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>578</v>
       </c>
       <c r="D86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>578</v>
       </c>
       <c r="D87" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3626,7 +3626,7 @@
         <v>578</v>
       </c>
       <c r="D88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3640,7 +3640,7 @@
         <v>578</v>
       </c>
       <c r="D89" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3654,7 +3654,7 @@
         <v>578</v>
       </c>
       <c r="D90" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3668,7 +3668,7 @@
         <v>579</v>
       </c>
       <c r="D91" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3682,7 +3682,7 @@
         <v>579</v>
       </c>
       <c r="D92" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>579</v>
       </c>
       <c r="D93" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3710,7 +3710,7 @@
         <v>580</v>
       </c>
       <c r="D94" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3724,7 +3724,7 @@
         <v>580</v>
       </c>
       <c r="D95" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3738,7 +3738,7 @@
         <v>580</v>
       </c>
       <c r="D96" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3752,7 +3752,7 @@
         <v>580</v>
       </c>
       <c r="D97" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3766,7 +3766,7 @@
         <v>580</v>
       </c>
       <c r="D98" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3780,7 +3780,7 @@
         <v>580</v>
       </c>
       <c r="D99" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3794,7 +3794,7 @@
         <v>581</v>
       </c>
       <c r="D100" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3808,7 +3808,7 @@
         <v>581</v>
       </c>
       <c r="D101" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3822,7 +3822,7 @@
         <v>581</v>
       </c>
       <c r="D102" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3836,7 +3836,7 @@
         <v>581</v>
       </c>
       <c r="D103" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>581</v>
       </c>
       <c r="D104" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3864,7 +3864,7 @@
         <v>582</v>
       </c>
       <c r="D105" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3878,7 +3878,7 @@
         <v>582</v>
       </c>
       <c r="D106" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3892,7 +3892,7 @@
         <v>582</v>
       </c>
       <c r="D107" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3906,7 +3906,7 @@
         <v>582</v>
       </c>
       <c r="D108" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>582</v>
       </c>
       <c r="D109" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3934,7 +3934,7 @@
         <v>582</v>
       </c>
       <c r="D110" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3948,7 +3948,7 @@
         <v>583</v>
       </c>
       <c r="D111" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3962,7 +3962,7 @@
         <v>583</v>
       </c>
       <c r="D112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>583</v>
       </c>
       <c r="D113" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3990,7 +3990,7 @@
         <v>583</v>
       </c>
       <c r="D114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4004,7 +4004,7 @@
         <v>583</v>
       </c>
       <c r="D115" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>583</v>
       </c>
       <c r="D116" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4032,7 +4032,7 @@
         <v>583</v>
       </c>
       <c r="D117" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>584</v>
       </c>
       <c r="D118" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>584</v>
       </c>
       <c r="D119" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4074,7 +4074,7 @@
         <v>584</v>
       </c>
       <c r="D120" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4088,7 +4088,7 @@
         <v>584</v>
       </c>
       <c r="D121" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>585</v>
       </c>
       <c r="D122" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>585</v>
       </c>
       <c r="D123" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4130,7 +4130,7 @@
         <v>585</v>
       </c>
       <c r="D124" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>585</v>
       </c>
       <c r="D125" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4158,7 +4158,7 @@
         <v>585</v>
       </c>
       <c r="D126" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>585</v>
       </c>
       <c r="D127" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4186,7 +4186,7 @@
         <v>586</v>
       </c>
       <c r="D128" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4200,7 +4200,7 @@
         <v>586</v>
       </c>
       <c r="D129" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4214,7 +4214,7 @@
         <v>586</v>
       </c>
       <c r="D130" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4228,7 +4228,7 @@
         <v>586</v>
       </c>
       <c r="D131" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4242,7 +4242,7 @@
         <v>586</v>
       </c>
       <c r="D132" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>586</v>
       </c>
       <c r="D133" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4270,7 +4270,7 @@
         <v>587</v>
       </c>
       <c r="D134" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4284,7 +4284,7 @@
         <v>587</v>
       </c>
       <c r="D135" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4298,7 +4298,7 @@
         <v>587</v>
       </c>
       <c r="D136" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>587</v>
       </c>
       <c r="D137" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4326,7 +4326,7 @@
         <v>587</v>
       </c>
       <c r="D138" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4340,7 +4340,7 @@
         <v>588</v>
       </c>
       <c r="D139" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4354,7 +4354,7 @@
         <v>588</v>
       </c>
       <c r="D140" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>588</v>
       </c>
       <c r="D141" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4382,7 +4382,7 @@
         <v>588</v>
       </c>
       <c r="D142" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4396,7 +4396,7 @@
         <v>588</v>
       </c>
       <c r="D143" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>588</v>
       </c>
       <c r="D144" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4424,7 +4424,7 @@
         <v>589</v>
       </c>
       <c r="D145" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4438,7 +4438,7 @@
         <v>589</v>
       </c>
       <c r="D146" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4452,7 +4452,7 @@
         <v>589</v>
       </c>
       <c r="D147" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4466,7 +4466,7 @@
         <v>589</v>
       </c>
       <c r="D148" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4480,7 +4480,7 @@
         <v>589</v>
       </c>
       <c r="D149" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4494,7 +4494,7 @@
         <v>590</v>
       </c>
       <c r="D150" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4508,7 +4508,7 @@
         <v>590</v>
       </c>
       <c r="D151" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4522,7 +4522,7 @@
         <v>590</v>
       </c>
       <c r="D152" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4536,7 +4536,7 @@
         <v>590</v>
       </c>
       <c r="D153" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4550,7 +4550,7 @@
         <v>590</v>
       </c>
       <c r="D154" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4564,7 +4564,7 @@
         <v>590</v>
       </c>
       <c r="D155" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4578,7 +4578,7 @@
         <v>591</v>
       </c>
       <c r="D156" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4592,7 +4592,7 @@
         <v>591</v>
       </c>
       <c r="D157" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4606,7 +4606,7 @@
         <v>591</v>
       </c>
       <c r="D158" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>591</v>
       </c>
       <c r="D159" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4634,7 +4634,7 @@
         <v>591</v>
       </c>
       <c r="D160" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4648,7 +4648,7 @@
         <v>591</v>
       </c>
       <c r="D161" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4662,7 +4662,7 @@
         <v>592</v>
       </c>
       <c r="D162" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4676,7 +4676,7 @@
         <v>592</v>
       </c>
       <c r="D163" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4690,7 +4690,7 @@
         <v>592</v>
       </c>
       <c r="D164" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4704,7 +4704,7 @@
         <v>592</v>
       </c>
       <c r="D165" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4718,7 +4718,7 @@
         <v>592</v>
       </c>
       <c r="D166" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4732,7 +4732,7 @@
         <v>592</v>
       </c>
       <c r="D167" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4746,7 +4746,7 @@
         <v>593</v>
       </c>
       <c r="D168" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4760,7 +4760,7 @@
         <v>593</v>
       </c>
       <c r="D169" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4774,7 +4774,7 @@
         <v>593</v>
       </c>
       <c r="D170" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>593</v>
       </c>
       <c r="D171" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>593</v>
       </c>
       <c r="D172" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>593</v>
       </c>
       <c r="D173" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4830,7 +4830,7 @@
         <v>594</v>
       </c>
       <c r="D174" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>594</v>
       </c>
       <c r="D175" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4858,7 +4858,7 @@
         <v>594</v>
       </c>
       <c r="D176" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>594</v>
       </c>
       <c r="D177" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>595</v>
       </c>
       <c r="D178" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>595</v>
       </c>
       <c r="D179" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4914,7 +4914,7 @@
         <v>595</v>
       </c>
       <c r="D180" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>596</v>
       </c>
       <c r="D181" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4942,7 +4942,7 @@
         <v>596</v>
       </c>
       <c r="D182" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>596</v>
       </c>
       <c r="D183" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>596</v>
       </c>
       <c r="D184" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4984,7 +4984,7 @@
         <v>596</v>
       </c>
       <c r="D185" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4998,7 +4998,7 @@
         <v>596</v>
       </c>
       <c r="D186" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>597</v>
       </c>
       <c r="D187" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5026,7 +5026,7 @@
         <v>597</v>
       </c>
       <c r="D188" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5040,7 +5040,7 @@
         <v>597</v>
       </c>
       <c r="D189" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5054,7 +5054,7 @@
         <v>597</v>
       </c>
       <c r="D190" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5068,7 +5068,7 @@
         <v>597</v>
       </c>
       <c r="D191" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5082,7 +5082,7 @@
         <v>598</v>
       </c>
       <c r="D192" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5096,7 +5096,7 @@
         <v>598</v>
       </c>
       <c r="D193" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>598</v>
       </c>
       <c r="D194" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5121,10 +5121,10 @@
         <v>475</v>
       </c>
       <c r="C195" t="s">
-        <v>599</v>
+        <v>475</v>
       </c>
       <c r="D195" t="s">
-        <v>475</v>
+        <v>653</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5135,10 +5135,10 @@
         <v>476</v>
       </c>
       <c r="C196" t="s">
-        <v>599</v>
+        <v>475</v>
       </c>
       <c r="D196" t="s">
-        <v>475</v>
+        <v>653</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5149,10 +5149,10 @@
         <v>477</v>
       </c>
       <c r="C197" t="s">
-        <v>599</v>
+        <v>475</v>
       </c>
       <c r="D197" t="s">
-        <v>475</v>
+        <v>653</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5163,10 +5163,10 @@
         <v>478</v>
       </c>
       <c r="C198" t="s">
-        <v>599</v>
+        <v>475</v>
       </c>
       <c r="D198" t="s">
-        <v>475</v>
+        <v>653</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5177,10 +5177,10 @@
         <v>479</v>
       </c>
       <c r="C199" t="s">
-        <v>599</v>
+        <v>475</v>
       </c>
       <c r="D199" t="s">
-        <v>475</v>
+        <v>653</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5191,7 +5191,7 @@
         <v>480</v>
       </c>
       <c r="C200" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D200" t="s">
         <v>654</v>
@@ -5205,7 +5205,7 @@
         <v>481</v>
       </c>
       <c r="C201" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D201" t="s">
         <v>654</v>
@@ -5219,7 +5219,7 @@
         <v>482</v>
       </c>
       <c r="C202" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D202" t="s">
         <v>654</v>
@@ -5233,7 +5233,7 @@
         <v>483</v>
       </c>
       <c r="C203" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D203" t="s">
         <v>654</v>
@@ -5247,7 +5247,7 @@
         <v>484</v>
       </c>
       <c r="C204" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D204" t="s">
         <v>655</v>
@@ -5261,7 +5261,7 @@
         <v>485</v>
       </c>
       <c r="C205" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D205" t="s">
         <v>655</v>
@@ -5275,7 +5275,7 @@
         <v>486</v>
       </c>
       <c r="C206" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D206" t="s">
         <v>655</v>
@@ -5289,7 +5289,7 @@
         <v>487</v>
       </c>
       <c r="C207" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D207" t="s">
         <v>655</v>
@@ -5303,7 +5303,7 @@
         <v>488</v>
       </c>
       <c r="C208" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D208" t="s">
         <v>655</v>
@@ -5317,7 +5317,7 @@
         <v>489</v>
       </c>
       <c r="C209" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D209" t="s">
         <v>656</v>
@@ -5331,7 +5331,7 @@
         <v>490</v>
       </c>
       <c r="C210" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D210" t="s">
         <v>656</v>
@@ -5345,7 +5345,7 @@
         <v>491</v>
       </c>
       <c r="C211" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D211" t="s">
         <v>656</v>
@@ -5359,7 +5359,7 @@
         <v>492</v>
       </c>
       <c r="C212" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D212" t="s">
         <v>656</v>
@@ -5373,7 +5373,7 @@
         <v>493</v>
       </c>
       <c r="C213" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D213" t="s">
         <v>657</v>
@@ -5387,7 +5387,7 @@
         <v>494</v>
       </c>
       <c r="C214" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D214" t="s">
         <v>657</v>
@@ -5401,7 +5401,7 @@
         <v>495</v>
       </c>
       <c r="C215" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D215" t="s">
         <v>657</v>
@@ -5415,7 +5415,7 @@
         <v>496</v>
       </c>
       <c r="C216" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D216" t="s">
         <v>657</v>
@@ -5429,7 +5429,7 @@
         <v>497</v>
       </c>
       <c r="C217" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D217" t="s">
         <v>657</v>
@@ -5443,7 +5443,7 @@
         <v>498</v>
       </c>
       <c r="C218" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D218" t="s">
         <v>658</v>
@@ -5457,7 +5457,7 @@
         <v>499</v>
       </c>
       <c r="C219" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D219" t="s">
         <v>658</v>
@@ -5471,7 +5471,7 @@
         <v>500</v>
       </c>
       <c r="C220" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D220" t="s">
         <v>658</v>
@@ -5485,7 +5485,7 @@
         <v>501</v>
       </c>
       <c r="C221" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D221" t="s">
         <v>658</v>
@@ -5499,7 +5499,7 @@
         <v>502</v>
       </c>
       <c r="C222" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D222" t="s">
         <v>658</v>
@@ -5513,7 +5513,7 @@
         <v>503</v>
       </c>
       <c r="C223" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D223" t="s">
         <v>658</v>
@@ -5527,7 +5527,7 @@
         <v>504</v>
       </c>
       <c r="C224" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D224" t="s">
         <v>659</v>
@@ -5541,7 +5541,7 @@
         <v>505</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D225" t="s">
         <v>659</v>
@@ -5555,7 +5555,7 @@
         <v>506</v>
       </c>
       <c r="C226" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D226" t="s">
         <v>659</v>
@@ -5569,7 +5569,7 @@
         <v>507</v>
       </c>
       <c r="C227" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D227" t="s">
         <v>659</v>
@@ -5583,7 +5583,7 @@
         <v>508</v>
       </c>
       <c r="C228" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D228" t="s">
         <v>659</v>
@@ -5597,7 +5597,7 @@
         <v>509</v>
       </c>
       <c r="C229" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D229" t="s">
         <v>660</v>
@@ -5611,7 +5611,7 @@
         <v>510</v>
       </c>
       <c r="C230" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D230" t="s">
         <v>660</v>
@@ -5625,7 +5625,7 @@
         <v>511</v>
       </c>
       <c r="C231" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D231" t="s">
         <v>660</v>
@@ -5639,7 +5639,7 @@
         <v>512</v>
       </c>
       <c r="C232" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D232" t="s">
         <v>660</v>
@@ -5653,7 +5653,7 @@
         <v>513</v>
       </c>
       <c r="C233" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D233" t="s">
         <v>660</v>
@@ -5667,7 +5667,7 @@
         <v>514</v>
       </c>
       <c r="C234" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D234" t="s">
         <v>660</v>
@@ -5681,7 +5681,7 @@
         <v>515</v>
       </c>
       <c r="C235" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D235" t="s">
         <v>660</v>
@@ -5695,7 +5695,7 @@
         <v>516</v>
       </c>
       <c r="C236" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D236" t="s">
         <v>661</v>
@@ -5709,7 +5709,7 @@
         <v>517</v>
       </c>
       <c r="C237" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D237" t="s">
         <v>661</v>
@@ -5723,7 +5723,7 @@
         <v>518</v>
       </c>
       <c r="C238" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D238" t="s">
         <v>661</v>
@@ -5737,7 +5737,7 @@
         <v>519</v>
       </c>
       <c r="C239" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D239" t="s">
         <v>661</v>
@@ -5751,7 +5751,7 @@
         <v>520</v>
       </c>
       <c r="C240" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D240" t="s">
         <v>661</v>
@@ -5765,7 +5765,7 @@
         <v>521</v>
       </c>
       <c r="C241" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D241" t="s">
         <v>661</v>
@@ -5779,7 +5779,7 @@
         <v>522</v>
       </c>
       <c r="C242" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D242" t="s">
         <v>662</v>
@@ -5793,7 +5793,7 @@
         <v>523</v>
       </c>
       <c r="C243" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D243" t="s">
         <v>662</v>
@@ -5807,7 +5807,7 @@
         <v>524</v>
       </c>
       <c r="C244" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D244" t="s">
         <v>662</v>
@@ -5821,7 +5821,7 @@
         <v>525</v>
       </c>
       <c r="C245" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D245" t="s">
         <v>662</v>
@@ -5835,7 +5835,7 @@
         <v>526</v>
       </c>
       <c r="C246" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D246" t="s">
         <v>662</v>
@@ -5849,7 +5849,7 @@
         <v>527</v>
       </c>
       <c r="C247" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D247" t="s">
         <v>662</v>
@@ -5863,7 +5863,7 @@
         <v>528</v>
       </c>
       <c r="C248" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D248" t="s">
         <v>663</v>
@@ -5877,7 +5877,7 @@
         <v>529</v>
       </c>
       <c r="C249" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D249" t="s">
         <v>663</v>
@@ -5891,7 +5891,7 @@
         <v>530</v>
       </c>
       <c r="C250" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D250" t="s">
         <v>663</v>
@@ -5905,7 +5905,7 @@
         <v>531</v>
       </c>
       <c r="C251" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D251" t="s">
         <v>663</v>
@@ -5919,7 +5919,7 @@
         <v>532</v>
       </c>
       <c r="C252" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D252" t="s">
         <v>663</v>
@@ -5933,7 +5933,7 @@
         <v>533</v>
       </c>
       <c r="C253" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D253" t="s">
         <v>664</v>
@@ -5947,7 +5947,7 @@
         <v>534</v>
       </c>
       <c r="C254" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D254" t="s">
         <v>664</v>
@@ -5961,7 +5961,7 @@
         <v>535</v>
       </c>
       <c r="C255" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D255" t="s">
         <v>664</v>
@@ -5975,7 +5975,7 @@
         <v>536</v>
       </c>
       <c r="C256" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D256" t="s">
         <v>664</v>
@@ -5989,7 +5989,7 @@
         <v>537</v>
       </c>
       <c r="C257" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D257" t="s">
         <v>664</v>
@@ -6003,7 +6003,7 @@
         <v>538</v>
       </c>
       <c r="C258" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D258" t="s">
         <v>664</v>
@@ -6017,7 +6017,7 @@
         <v>539</v>
       </c>
       <c r="C259" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D259" t="s">
         <v>665</v>
@@ -6031,7 +6031,7 @@
         <v>540</v>
       </c>
       <c r="C260" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D260" t="s">
         <v>665</v>
@@ -6045,7 +6045,7 @@
         <v>541</v>
       </c>
       <c r="C261" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D261" t="s">
         <v>665</v>
@@ -6059,7 +6059,7 @@
         <v>542</v>
       </c>
       <c r="C262" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D262" t="s">
         <v>665</v>
@@ -6073,7 +6073,7 @@
         <v>543</v>
       </c>
       <c r="C263" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D263" t="s">
         <v>665</v>
@@ -6087,7 +6087,7 @@
         <v>544</v>
       </c>
       <c r="C264" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D264" t="s">
         <v>666</v>
@@ -6101,7 +6101,7 @@
         <v>545</v>
       </c>
       <c r="C265" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D265" t="s">
         <v>666</v>
@@ -6115,7 +6115,7 @@
         <v>546</v>
       </c>
       <c r="C266" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D266" t="s">
         <v>666</v>
@@ -6129,7 +6129,7 @@
         <v>547</v>
       </c>
       <c r="C267" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D267" t="s">
         <v>666</v>
@@ -6143,7 +6143,7 @@
         <v>548</v>
       </c>
       <c r="C268" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D268" t="s">
         <v>666</v>
@@ -6157,7 +6157,7 @@
         <v>549</v>
       </c>
       <c r="C269" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D269" t="s">
         <v>666</v>
@@ -6171,7 +6171,7 @@
         <v>550</v>
       </c>
       <c r="C270" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D270" t="s">
         <v>667</v>
@@ -6185,7 +6185,7 @@
         <v>551</v>
       </c>
       <c r="C271" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D271" t="s">
         <v>667</v>
@@ -6199,7 +6199,7 @@
         <v>552</v>
       </c>
       <c r="C272" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D272" t="s">
         <v>667</v>
@@ -6213,7 +6213,7 @@
         <v>553</v>
       </c>
       <c r="C273" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D273" t="s">
         <v>667</v>
@@ -6227,7 +6227,7 @@
         <v>554</v>
       </c>
       <c r="C274" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D274" t="s">
         <v>667</v>
@@ -6241,7 +6241,7 @@
         <v>555</v>
       </c>
       <c r="C275" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D275" t="s">
         <v>668</v>
@@ -6255,7 +6255,7 @@
         <v>556</v>
       </c>
       <c r="C276" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D276" t="s">
         <v>668</v>
@@ -6269,7 +6269,7 @@
         <v>557</v>
       </c>
       <c r="C277" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D277" t="s">
         <v>668</v>
@@ -6283,7 +6283,7 @@
         <v>558</v>
       </c>
       <c r="C278" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D278" t="s">
         <v>668</v>
@@ -6297,7 +6297,7 @@
         <v>559</v>
       </c>
       <c r="C279" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D279" t="s">
         <v>668</v>
